--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -277,12 +277,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <color rgb="FF000000"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
       <t>{</t>
     </r>
     <r>
@@ -393,12 +387,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <color rgb="FF000000"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
       <t>Проверка уведомления "</t>
     </r>
     <r>
@@ -455,15 +443,6 @@
   </si>
   <si>
     <t>Дожно появиться уведомление "Неверный формат E-Mail"</t>
-  </si>
-  <si>
-    <t>Очищаем форму E-Mail и вводим невалидные данные</t>
-  </si>
-  <si>
-    <t>smth@mail</t>
-  </si>
-  <si>
-    <t>False</t>
   </si>
   <si>
     <t>TC-008</t>
@@ -512,7 +491,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,20 +504,8 @@
         <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor rgb="FF92D050"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="76">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -745,19 +712,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left>
         <color rgb="FF000000"/>
       </left>
-      <right style="thick">
+      <right>
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thick">
         <color rgb="FF000000"/>
@@ -766,32 +726,6 @@
     </border>
     <border>
       <left>
-        <color rgb="FF000000"/>
-      </left>
-      <right>
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
         <color rgb="FF000000"/>
       </left>
       <right style="thick">
@@ -831,45 +765,6 @@
     </border>
     <border>
       <left>
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
         <color rgb="FF000000"/>
       </left>
       <right style="thick">
@@ -894,28 +789,6 @@
     </border>
     <border>
       <left>
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
         <color rgb="FF000000"/>
       </left>
       <right style="thick">
@@ -933,15 +806,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
@@ -956,19 +820,6 @@
     </border>
     <border>
       <left>
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom>
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
         <color rgb="FF000000"/>
       </left>
       <right style="thick">
@@ -1030,58 +881,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top>
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right>
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1100,17 +899,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1196,30 +984,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick"/>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom>
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color rgb="FF000000"/>
-      </left>
-      <right>
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom>
         <color rgb="FF000000"/>
@@ -1236,146 +1002,6 @@
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom>
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom>
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color rgb="FF000000"/>
-      </left>
-      <right>
-        <color rgb="FF000000"/>
-      </right>
-      <top>
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick"/>
-      <top>
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left>
-        <color rgb="FF000000"/>
-      </left>
-      <right>
-        <color rgb="FF000000"/>
-      </right>
-      <top>
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top>
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top>
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick"/>
-      <right style="thick"/>
-      <top/>
-      <bottom style="thick"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick"/>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thick"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thick"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick"/>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thick"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF000000"/>
       </left>
@@ -1401,7 +1027,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="77">
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -1530,20 +1156,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="20" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="22" fillId="0" fontId="1" numFmtId="0" xfId="0">
@@ -1554,11 +1180,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="24" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="20" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="24" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1566,19 +1192,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="26" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="27" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="28" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="29" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1586,7 +1212,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="27" fillId="3" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="28" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="29" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="29" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1594,56 +1228,44 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="31" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="31" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="32" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="33" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="32" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="21" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="19" fillId="3" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="33" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="34" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="19" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="27" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="34" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="35" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="32" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="35" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="19" fillId="3" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="36" fillId="0" fontId="1" numFmtId="0" xfId="0">
@@ -1654,27 +1276,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="38" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="38" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" shrinkToFit="false" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="39" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="39" fillId="3" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="40" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="40" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="41" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="41" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="42" fillId="0" fontId="3" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" shrinkToFit="false" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="42" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="34" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="43" fillId="3" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="43" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -1682,171 +1308,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="23" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="true"/>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="29" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="45" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" shrinkToFit="false" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="45" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="45" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" shrinkToFit="false" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="46" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="23" fillId="3" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="42" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="47" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="48" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="49" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="50" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="51" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="23" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="52" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="53" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="54" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="55" fillId="3" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="56" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="57" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="58" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="59" fillId="0" fontId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="60" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="61" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="62" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="63" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="63" fillId="3" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="59" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="64" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="65" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="66" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="67" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="68" fillId="3" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="69" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="70" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="71" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="72" fillId="4" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="73" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="74" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="73" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="35" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="19" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" shrinkToFit="false" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="75" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="49" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" shrinkToFit="false" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="23" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyNumberFormat="true" applyFont="true" applyProtection="true" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="center" textRotation="0" shrinkToFit="false" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -2121,7 +1607,7 @@
     <col max="6" min="6" style="1" width="23.28515625" customWidth="true"/>
     <col max="7" min="7" style="1" width="66.42578125" customWidth="true"/>
     <col max="8" min="8" style="1" width="13.28515625" customWidth="true"/>
-    <col max="9" min="9" style="1" width="12.5703125" customWidth="true" bestFit="true"/>
+    <col max="9" min="9" style="1" width="12.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2512,1160 +1998,1116 @@
     <outlinePr summaryBelow="false" summaryRight="false"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N994"/>
+  <dimension ref="A1:H992"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true" showZeros="true" showFormulas="false" showGridLines="true" showRowColHeaders="true">
-      <selection sqref="G46" activeCell="G46"/>
+    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115" tabSelected="true" showZeros="true" showFormulas="false" showGridLines="true" showRowColHeaders="true">
+      <selection sqref="F63" activeCell="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" customHeight="true" defaultRowHeight="15.75"/>
   <cols>
     <col max="1" min="1" style="1" width="11.7109375" customWidth="true"/>
     <col max="2" min="2" style="1" width="11" customWidth="true"/>
-    <col max="3" min="3" style="32" width="31.28515625" customWidth="true"/>
-    <col max="4" min="4" style="33" width="4.85546875" customWidth="true"/>
+    <col max="3" min="3" style="4" width="31.28515625" customWidth="true"/>
+    <col max="4" min="4" style="32" width="4.85546875" customWidth="true"/>
     <col max="5" min="5" style="1" width="45.140625" customWidth="true"/>
-    <col max="6" min="6" style="32" width="30.42578125" customWidth="true"/>
-    <col max="7" min="7" style="1" width="101.7109375" customWidth="true" bestFit="true"/>
-    <col max="8" min="8" style="32" width="14.7109375" customWidth="true"/>
-    <col max="14" min="14" style="1" width="12.5703125" customWidth="true" bestFit="true"/>
+    <col max="6" min="6" style="4" width="30.42578125" customWidth="true"/>
+    <col max="7" min="7" style="1" width="101.7109375" customWidth="true"/>
+    <col max="8" min="8" style="4" width="14.7109375" customWidth="true"/>
+    <col max="14" min="14" style="1" width="12.5703125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="true" s="34">
-      <c r="A1" s="35" t="s">
+    <row r="1" customFormat="true" s="3">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="39"/>
     </row>
     <row r="2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="43" t="n">
+      <c r="D2" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="46" t="s">
+      <c r="H2" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50" t="n">
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="53" t="s">
+      <c r="H3" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50" t="n">
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50" t="n">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50" t="n">
+      <c r="A6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="47"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50" t="n">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41" t="n">
         <v>6</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="53" t="s">
+      <c r="H7" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" ht="15.75">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50" t="n">
+      <c r="A8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41" t="n">
         <v>7</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="54"/>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="53" t="s">
+      <c r="H8" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50" t="n">
+      <c r="A9" s="39"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41" t="n">
         <v>8</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="54"/>
-      <c r="G9" s="32" t="s">
+      <c r="G9" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="53" t="s">
+      <c r="H9" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="32" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="4"/>
+      <c r="G10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="53" t="s">
+      <c r="H10" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" customHeight="true" ht="60">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="53" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="43" t="n">
+      <c r="D12" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="46" t="s">
+      <c r="H12" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="50" t="n">
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="E13" s="51" t="s">
+      <c r="E13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="52" t="s">
+      <c r="F13" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="53" t="s">
+      <c r="H13" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="50" t="n">
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="53" t="s">
+      <c r="H14" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="50" t="n">
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="E15" s="51" t="s">
+      <c r="E15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="53" t="s">
+      <c r="H15" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="50" t="n">
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="32" t="s">
+      <c r="G16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H16" s="53" t="s">
+      <c r="H16" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="50" t="n">
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="41" t="n">
         <v>6</v>
       </c>
-      <c r="E17" s="51" t="s">
+      <c r="E17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="47"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="50" t="n">
+      <c r="A18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="41" t="n">
         <v>7</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="54"/>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="53" t="s">
+      <c r="H18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="N18" s="0"/>
     </row>
     <row r="19">
-      <c r="A19" s="47"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="50" t="n">
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="41" t="n">
         <v>8</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="E19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F19" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="G19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H19" s="53" t="s">
+      <c r="H19" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="47"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="50" t="n">
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="41" t="n">
         <v>9</v>
       </c>
-      <c r="E20" s="51" t="s">
+      <c r="E20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G20" s="32" t="s">
+      <c r="G20" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="53" t="s">
+      <c r="H20" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="57"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="51" t="s">
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="54"/>
-      <c r="G21" s="32" t="s">
+      <c r="G21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H21" s="60"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22">
-      <c r="A22" s="61"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="63" t="n">
+      <c r="A22" s="45"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="47" t="n">
         <v>10</v>
       </c>
-      <c r="E22" s="51" t="s">
+      <c r="E22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="54"/>
-      <c r="G22" s="32" t="s">
+      <c r="G22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H22" s="64" t="s">
+      <c r="H22" s="48" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="65"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="32" t="s">
+      <c r="A23" s="49"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="4"/>
+      <c r="G23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="68" t="s">
+      <c r="H23" s="52" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" customHeight="true" ht="61.5" customFormat="true" s="34">
-      <c r="A24" s="69"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="73" t="s">
+    <row r="24" customHeight="true" ht="61.5" customFormat="true" s="3">
+      <c r="A24" s="53"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="N24" s="39"/>
     </row>
     <row r="25">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="43" t="n">
+      <c r="D25" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="E25" s="44" t="s">
+      <c r="E25" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="45" t="s">
+      <c r="F25" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="45" t="s">
+      <c r="G25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H25" s="46" t="s">
+      <c r="H25" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="47"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="50" t="n">
+      <c r="A26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="41" t="n">
         <v>2</v>
       </c>
-      <c r="E26" s="51" t="s">
+      <c r="E26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="52" t="s">
+      <c r="F26" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G26" s="32" t="s">
+      <c r="G26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="53" t="s">
+      <c r="H26" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="47"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="50" t="n">
+      <c r="A27" s="39"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="41" t="n">
         <v>3</v>
       </c>
-      <c r="E27" s="51" t="s">
+      <c r="E27" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="52" t="s">
+      <c r="F27" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="32" t="s">
+      <c r="G27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="53" t="s">
+      <c r="H27" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="47"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="50" t="n">
+      <c r="A28" s="39"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="E28" s="51" t="s">
+      <c r="E28" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="53" t="s">
+      <c r="H28" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="47"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="50" t="n">
+      <c r="A29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="E29" s="51" t="s">
+      <c r="E29" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="F29" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="32" t="s">
+      <c r="G29" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="53" t="s">
+      <c r="H29" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="61"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="50" t="n">
+      <c r="A30" s="45"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="41" t="n">
         <v>6</v>
       </c>
-      <c r="E30" s="51" t="s">
+      <c r="E30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="32" t="s">
+      <c r="F30" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G30" s="32" t="s">
+      <c r="G30" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H30" s="53" t="s">
+      <c r="H30" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="65"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="50" t="n">
+      <c r="A31" s="49"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="41" t="n">
         <v>7</v>
       </c>
-      <c r="E31" s="51" t="s">
+      <c r="E31" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G31" s="32" t="s">
+      <c r="G31" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H31" s="53" t="s">
+      <c r="H31" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="47"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="50" t="n">
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="41" t="n">
         <v>8</v>
       </c>
-      <c r="E32" s="51" t="s">
+      <c r="E32" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G32" s="32" t="s">
+      <c r="G32" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H32" s="53" t="s">
+      <c r="H32" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="47"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="50" t="n">
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="41" t="n">
         <v>9</v>
       </c>
-      <c r="E33" s="51" t="s">
+      <c r="E33" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G33" s="32" t="s">
+      <c r="G33" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H33" s="53" t="s">
+      <c r="H33" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="47"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="63" t="n">
+      <c r="A34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="47" t="n">
         <v>10</v>
       </c>
-      <c r="E34" s="51" t="s">
+      <c r="E34" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="32" t="s">
+      <c r="G34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H34" s="64" t="s">
+      <c r="H34" s="48" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="47"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="51"/>
-      <c r="G35" s="32" t="s">
+      <c r="A35" s="39"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="4"/>
+      <c r="G35" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H35" s="68" t="s">
+      <c r="H35" s="52" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="36" customHeight="true" ht="49.5">
-      <c r="A36" s="47"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="64" t="s">
+      <c r="A36" s="39"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="57"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="48" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="61"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="63" t="n">
+      <c r="A37" s="45"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="47" t="n">
         <v>11</v>
       </c>
-      <c r="E37" s="51" t="s">
+      <c r="E37" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G37" s="32" t="s">
+      <c r="G37" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H37" s="64" t="s">
+      <c r="H37" s="48" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="65"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="75" t="n">
+      <c r="A38" s="49"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="56" t="n">
         <v>12</v>
       </c>
-      <c r="E38" s="76" t="s">
+      <c r="E38" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="G38" s="32" t="s">
+      <c r="G38" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H38" s="64" t="s">
+      <c r="H38" s="48" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="47"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="75" t="n">
+      <c r="A39" s="39"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="56" t="n">
         <v>13</v>
       </c>
-      <c r="E39" s="76" t="s">
+      <c r="E39" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="G39" s="32" t="s">
+      <c r="G39" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H39" s="64" t="s">
+      <c r="H39" s="48" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="47"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="76"/>
-      <c r="G40" s="32" t="s">
+      <c r="A40" s="39"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="57"/>
+      <c r="G40" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H40" s="64" t="s">
+      <c r="H40" s="48" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="41" customHeight="true" ht="84.75">
-      <c r="A41" s="47"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="64" t="s">
+      <c r="A41" s="39"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="57"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="48" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="47"/>
-      <c r="B42" s="58"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="75" t="n">
+      <c r="A42" s="39"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="56" t="n">
         <v>14</v>
       </c>
-      <c r="E42" s="76" t="s">
+      <c r="E42" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="G42" s="32" t="s">
+      <c r="G42" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H42" s="64" t="s">
+      <c r="H42" s="48" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="47"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="75" t="n">
+      <c r="A43" s="39"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="56" t="n">
         <v>15</v>
       </c>
-      <c r="E43" s="76" t="s">
+      <c r="E43" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="G43" s="32" t="s">
+      <c r="G43" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="H43" s="64" t="s">
+      <c r="H43" s="48" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="47"/>
-      <c r="B44" s="58"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="75" t="n">
+      <c r="A44" s="39"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="56" t="n">
         <v>16</v>
       </c>
-      <c r="E44" s="76" t="s">
+      <c r="E44" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="G44" s="32" t="s">
+      <c r="G44" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H44" s="64" t="s">
+      <c r="H44" s="48" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="47"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="76"/>
-      <c r="G45" s="32" t="s">
+      <c r="A45" s="39"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="57"/>
+      <c r="G45" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H45" s="64" t="s">
+      <c r="H45" s="48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" customHeight="true" ht="112.5" customFormat="true" s="34">
-      <c r="A46" s="69"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="73" t="s">
+    <row r="46" customHeight="true" ht="112.5" customFormat="true" s="3">
+      <c r="A46" s="53"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="N46" s="39"/>
     </row>
     <row r="47">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="81" t="s">
+      <c r="B47" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="82" t="s">
+      <c r="C47" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="D47" s="83" t="n">
+      <c r="D47" s="63" t="n">
         <v>1</v>
       </c>
-      <c r="E47" s="44" t="s">
+      <c r="E47" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="45" t="s">
+      <c r="F47" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G47" s="45" t="s">
+      <c r="G47" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="84" t="s">
+      <c r="H47" s="64" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="26"/>
-      <c r="B48" s="85"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="87" t="n">
+      <c r="B48" s="65"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67" t="n">
         <v>2</v>
       </c>
-      <c r="E48" s="51" t="s">
+      <c r="E48" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F48" s="52" t="s">
+      <c r="F48" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G48" s="32" t="s">
+      <c r="G48" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H48" s="64" t="s">
+      <c r="H48" s="48" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="26"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="87" t="n">
+      <c r="C49" s="66"/>
+      <c r="D49" s="67" t="n">
         <v>3</v>
       </c>
-      <c r="E49" s="51" t="s">
+      <c r="E49" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F49" s="52" t="s">
+      <c r="F49" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="32" t="s">
+      <c r="G49" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H49" s="64" t="s">
+      <c r="H49" s="48" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="26"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="87" t="n">
+      <c r="C50" s="66"/>
+      <c r="D50" s="67" t="n">
         <v>4</v>
       </c>
-      <c r="E50" s="51" t="s">
+      <c r="E50" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F50" s="54"/>
-      <c r="G50" s="32" t="s">
+      <c r="G50" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H50" s="64" t="s">
+      <c r="H50" s="48" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="26"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="87" t="n">
+      <c r="C51" s="66"/>
+      <c r="D51" s="67" t="n">
         <v>5</v>
       </c>
-      <c r="E51" s="51" t="s">
+      <c r="E51" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F51" s="32" t="s">
+      <c r="F51" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G51" s="32" t="s">
+      <c r="G51" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H51" s="64" t="s">
+      <c r="H51" s="48" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="26"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="87" t="n">
+      <c r="C52" s="66"/>
+      <c r="D52" s="67" t="n">
         <v>6</v>
       </c>
-      <c r="E52" s="51" t="s">
+      <c r="E52" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F52" s="32" t="s">
+      <c r="F52" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G52" s="32" t="s">
+      <c r="G52" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H52" s="53" t="s">
+      <c r="H52" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="53" customFormat="true" s="88">
-      <c r="A53" s="89"/>
-      <c r="B53" s="90"/>
-      <c r="C53" s="86"/>
-      <c r="D53" s="87" t="n">
+    <row r="53" customFormat="true" s="68">
+      <c r="A53" s="28"/>
+      <c r="B53" s="69"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="67" t="n">
         <v>7</v>
       </c>
-      <c r="E53" s="91" t="s">
+      <c r="E53" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="F53" s="92"/>
-      <c r="G53" s="92" t="s">
+      <c r="F53" s="70"/>
+      <c r="G53" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="H53" s="93" t="s">
+      <c r="H53" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="N53" s="94"/>
-    </row>
-    <row r="54" ht="24.75">
-      <c r="A54" s="95"/>
-      <c r="B54" s="96"/>
-      <c r="C54" s="86"/>
-      <c r="D54" s="87" t="n">
-        <v>8</v>
-      </c>
-      <c r="E54" s="97" t="s">
+    </row>
+    <row r="54">
+      <c r="A54" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="F54" s="98" t="s">
+      <c r="B54" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="G54" s="98" t="s">
-        <v>46</v>
-      </c>
-      <c r="H54" s="99" t="s">
+      <c r="D54" s="72" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H54" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="25"/>
-      <c r="C55" s="100"/>
-      <c r="D55" s="101" t="n">
-        <v>9</v>
-      </c>
-      <c r="E55" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="F55" s="102"/>
-      <c r="G55" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="H55" s="103" t="s">
-        <v>81</v>
+      <c r="B55" s="44"/>
+      <c r="C55" s="74"/>
+      <c r="D55" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H55" s="14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56" s="104" t="s">
-        <v>83</v>
-      </c>
-      <c r="D56" s="105" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="106" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" s="46" t="s">
+      <c r="A56" s="26"/>
+      <c r="C56" s="74"/>
+      <c r="D56" s="41" t="n">
+        <v>3</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="25"/>
-      <c r="B57" s="107"/>
-      <c r="C57" s="108"/>
-      <c r="D57" s="50" t="n">
-        <v>2</v>
-      </c>
-      <c r="E57" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="F57" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="G57" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="H57" s="53" t="s">
+      <c r="A57" s="26"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="41" t="n">
+        <v>4</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="26"/>
-      <c r="C58" s="108"/>
-      <c r="D58" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="E58" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58" s="53" t="s">
+      <c r="C58" s="74"/>
+      <c r="D58" s="41" t="n">
+        <v>5</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="26"/>
-      <c r="C59" s="108"/>
-      <c r="D59" s="50" t="n">
-        <v>4</v>
-      </c>
-      <c r="E59" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="G59" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="H59" s="53" t="s">
+      <c r="C59" s="74"/>
+      <c r="D59" s="41" t="n">
+        <v>6</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H59" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="26"/>
-      <c r="C60" s="108"/>
-      <c r="D60" s="50" t="n">
-        <v>5</v>
-      </c>
-      <c r="E60" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="F60" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="G60" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="H60" s="53" t="s">
+      <c r="A60" s="75"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="55" t="n">
+        <v>7</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H60" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="26"/>
-      <c r="C61" s="108"/>
-      <c r="D61" s="50" t="n">
-        <v>6</v>
-      </c>
-      <c r="E61" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="F61" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="G61" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="H61" s="53" t="s">
-        <v>14</v>
-      </c>
+      <c r="E61" s="26"/>
+      <c r="G61" s="26"/>
     </row>
     <row r="62">
-      <c r="A62" s="109"/>
-      <c r="B62" s="110"/>
-      <c r="C62" s="111"/>
-      <c r="D62" s="71" t="n">
-        <v>7</v>
-      </c>
-      <c r="E62" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="H62" s="73" t="s">
-        <v>14</v>
-      </c>
+      <c r="A62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="G62" s="26"/>
     </row>
     <row r="63">
       <c r="A63" s="26"/>
@@ -8316,26 +7758,16 @@
       <c r="A992" s="26"/>
       <c r="E992" s="26"/>
       <c r="G992" s="26"/>
-    </row>
-    <row r="993">
-      <c r="A993" s="26"/>
-      <c r="E993" s="26"/>
-      <c r="G993" s="26"/>
-    </row>
-    <row r="994">
-      <c r="A994" s="26"/>
-      <c r="E994" s="26"/>
-      <c r="G994" s="26"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="C2:C11"/>
     <mergeCell ref="C25:C46"/>
     <mergeCell ref="C12:C24"/>
-    <mergeCell ref="C56:C62"/>
-    <mergeCell ref="C47:C55"/>
+    <mergeCell ref="C54:C60"/>
+    <mergeCell ref="C47:C53"/>
   </mergeCells>
-  <conditionalFormatting sqref="I1:I995">
+  <conditionalFormatting sqref="I1:I993">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>NOT(ISERROR(SEARCH(("Pass"),(HomePage!I1))))</formula>
     </cfRule>
